--- a/画面レイアウト.xlsx
+++ b/画面レイアウト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2101201\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2101201\Documents\GitHub\healthApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8697F5D0-C290-4F46-AD88-F9523C0B82B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663A7A9-7B8C-4F35-92BA-C40C7415FA38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4380" tabRatio="784" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" tabRatio="784" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="141">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1069,6 +1069,168 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>ログイン画面へ</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタンを押すとログイン画面へ遷移する</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リンクをおすとログイン画面へ遷移する</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン画面へのボタンを押すとログイン画面へ遷移する。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>健康アプリのパスワード再設定画面のレイアウトを示す</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G3-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード再設定画面</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>半角30字</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>半角15字</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20文字</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>半角１５字</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードを忘れた方はこちら</t>
+    <rPh sb="6" eb="7">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リンクを押すとパスワード再設定画面へ遷移する</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1374,7 +1536,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1535,6 +1697,27 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1589,26 +1772,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1618,6 +1789,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1634,42 +1829,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1765,22 +1931,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>67236</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>17489</xdr:rowOff>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>10672</xdr:colOff>
+      <xdr:colOff>6933</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6970CC-6A31-4B66-AEEA-B9BC006166A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B31983-3037-43DE-9DF8-66260B5706F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,8 +1968,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="990600" y="1560539"/>
-          <a:ext cx="6135247" cy="4344961"/>
+          <a:off x="1053354" y="1591236"/>
+          <a:ext cx="6035697" cy="4213411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3000,13 +3166,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:colOff>683559</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>110857</xdr:rowOff>
+      <xdr:rowOff>33619</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3024,8 +3190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210050" y="4238624"/>
-          <a:ext cx="1752600" cy="329933"/>
+          <a:off x="4190440" y="4157943"/>
+          <a:ext cx="1603001" cy="245970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3333,16 +3499,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>120381</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3360,8 +3526,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3543300" y="4610100"/>
-          <a:ext cx="847725" cy="310881"/>
+          <a:off x="4280648" y="4392706"/>
+          <a:ext cx="2207558" cy="310881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3632,136 +3798,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>867011</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>155602</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04CE2FDF-7A51-47D1-B53B-0DCDFEDA5120}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6E2BD097-3556-4319-B06C-8EE621367C49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{6E2BD097-3556-4319-B06C-8EE621367C49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6000986" y="4438650"/>
-          <a:ext cx="247414" cy="3202"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>343136</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>155602</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C020D38D-BD13-4C3C-B8C3-9E0C551D0F07}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6E2BD097-3556-4319-B06C-8EE621367C49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{6E2BD097-3556-4319-B06C-8EE621367C49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4486511" y="4781550"/>
-          <a:ext cx="247414" cy="3202"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>858611</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>170090</xdr:rowOff>
@@ -3931,16 +3967,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>58511</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>663629</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>160565</xdr:rowOff>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>464911</xdr:colOff>
+      <xdr:colOff>83911</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>163874</xdr:rowOff>
+      <xdr:rowOff>96640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3958,8 +3994,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6183086" y="4275365"/>
-          <a:ext cx="406400" cy="346209"/>
+          <a:off x="5773511" y="4112560"/>
+          <a:ext cx="406400" cy="354374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4101,16 +4137,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>553811</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>8165</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352105</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>960211</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>11474</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>758505</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4128,8 +4164,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4697186" y="4637315"/>
-          <a:ext cx="406400" cy="346209"/>
+          <a:off x="6448105" y="4389664"/>
+          <a:ext cx="406400" cy="339486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4258,6 +4294,344 @@
               </a:solidFill>
             </a:rPr>
             <a:t>⑥</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>656666</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>332816</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>160722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EE341B-293B-465A-B377-012DC79BBF06}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1247BE6B-1CC5-3BCC-B3DE-ACED08AD43AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3615019" y="4899211"/>
+          <a:ext cx="841562" cy="304158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>282068</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>688468</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>35007</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AF8258-151C-4D8A-B82E-940000D9B3FC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CAF55A5B-BE1C-476D-865B-9128EDFA520B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4405833" y="4906256"/>
+          <a:ext cx="406400" cy="339486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑦</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
             <a:solidFill>
@@ -19442,174 +19816,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19130</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>158483</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BEDEA7-A332-4DEA-A8B2-802797D06A7C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1247BE6B-1CC5-3BCC-B3DE-ACED08AD43AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9174480" y="2346960"/>
-          <a:ext cx="2648030" cy="1331963"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-lt"/>
-            <a:cs typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -19825,81 +20031,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>231242</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>2722</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE50FCD6-8E37-47C4-92E8-A06D935F5C88}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6E2BD097-3556-4319-B06C-8EE621367C49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{6E2BD097-3556-4319-B06C-8EE621367C49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8422005" y="2657475"/>
-          <a:ext cx="39461" cy="362767"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>516992</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19917,8 +20058,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8662772" y="1623060"/>
-          <a:ext cx="635533" cy="196214"/>
+          <a:off x="4374617" y="1838325"/>
+          <a:ext cx="702208" cy="200024"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20220,15 +20361,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>20411</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>944336</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>131990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>426811</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>360136</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>135299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20247,8 +20388,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9385391" y="467270"/>
-          <a:ext cx="406400" cy="338589"/>
+          <a:off x="5087711" y="1675040"/>
+          <a:ext cx="406400" cy="346209"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20386,71 +20527,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285986</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>31777</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0F4CF9-9EFB-4127-969F-64213AFED5D5}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6E2BD097-3556-4319-B06C-8EE621367C49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{6E2BD097-3556-4319-B06C-8EE621367C49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8431766" y="2043457"/>
-          <a:ext cx="491254" cy="6323"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -20605,524 +20681,6 @@
         </a:lstStyle>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>③</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>210911</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>10070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>7711</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>13379</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="四角形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BE3234-C655-4C2C-82DD-AE13F9997A5A}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CAF55A5B-BE1C-476D-865B-9128EDFA520B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10185491" y="512990"/>
-          <a:ext cx="406400" cy="338589"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>④</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>546191</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342991</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>13379</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="四角形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96FF719D-50DC-41EE-AFBC-FA38BAC8B79D}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CAF55A5B-BE1C-476D-865B-9128EDFA520B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10520771" y="495300"/>
-          <a:ext cx="406400" cy="356279"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>⑤</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409031</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>101510</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>205831</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104819</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="四角形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9446C456-EDD3-4839-98C6-FEA3ABCAC56B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CAF55A5B-BE1C-476D-865B-9128EDFA520B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10993211" y="604430"/>
-          <a:ext cx="406400" cy="338589"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>⑥</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -30179,16 +29737,16 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="77" t="s">
+      <c r="Q3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="74"/>
-      <c r="S3" s="72">
+      <c r="R3" s="81"/>
+      <c r="S3" s="79">
         <v>45189</v>
       </c>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="81"/>
       <c r="W3" s="17"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -30283,14 +29841,14 @@
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="47"/>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
@@ -30308,66 +29866,66 @@
     </row>
     <row r="8" spans="1:168" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="78" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="80"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="87"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="77" t="s">
+      <c r="Q8" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="74"/>
-      <c r="S8" s="77" t="s">
+      <c r="R8" s="81"/>
+      <c r="S8" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="74"/>
-      <c r="U8" s="77" t="s">
+      <c r="T8" s="81"/>
+      <c r="U8" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="74"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="17"/>
       <c r="X8" s="44"/>
       <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:168" ht="15" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="83"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="90"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="90" t="s">
+      <c r="Q9" s="72"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="91"/>
+      <c r="V9" s="73"/>
       <c r="W9" s="15"/>
       <c r="X9" s="44"/>
       <c r="Y9" s="2"/>
@@ -30389,12 +29947,12 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="93"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="75"/>
       <c r="W10" s="15"/>
       <c r="X10" s="44"/>
       <c r="Y10" s="2"/>
@@ -30416,12 +29974,12 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="95"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="77"/>
       <c r="W11" s="15"/>
       <c r="X11" s="44"/>
       <c r="Y11" s="8"/>
@@ -30506,81 +30064,81 @@
     </row>
     <row r="15" spans="1:168" ht="15" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
       <c r="W15" s="11"/>
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:168" ht="15" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
       <c r="W16" s="11"/>
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
       <c r="W17" s="11"/>
       <c r="X17" s="2"/>
     </row>
@@ -31748,25 +31306,59 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="H42:S42"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:S43"/>
-    <mergeCell ref="Q9:R11"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:S40"/>
-    <mergeCell ref="B15:V17"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="S9:T11"/>
-    <mergeCell ref="U9:V11"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="H41:S41"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:S55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:S57"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:S54"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:S46"/>
+    <mergeCell ref="T46:V46"/>
     <mergeCell ref="H45:S45"/>
     <mergeCell ref="T45:V45"/>
     <mergeCell ref="B45:D45"/>
@@ -31783,59 +31375,25 @@
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="H39:S39"/>
     <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="H41:S41"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:S55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:S57"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:S54"/>
-    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="Q9:R11"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="B15:V17"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="S9:T11"/>
+    <mergeCell ref="U9:V11"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="H42:S42"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:S43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -31866,17 +31424,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -31885,11 +31443,11 @@
       <c r="B2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -31902,13 +31460,13 @@
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -31921,13 +31479,13 @@
       <c r="B4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -31942,11 +31500,11 @@
       <c r="B5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -31959,13 +31517,13 @@
       <c r="B6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -31985,17 +31543,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -32147,10 +31705,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -32158,32 +31716,32 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107" t="s">
+      <c r="C43" s="107"/>
+      <c r="D43" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="G43" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="54"/>
@@ -32200,109 +31758,109 @@
       <c r="A45" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="50"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="40"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="103"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="61"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="103"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="102"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="28"/>
@@ -32438,6 +31996,36 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
@@ -32445,36 +32033,6 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -32504,17 +32062,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -32523,11 +32081,11 @@
       <c r="B2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -32540,13 +32098,13 @@
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -32559,13 +32117,13 @@
       <c r="B4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -32580,11 +32138,11 @@
       <c r="B5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -32597,13 +32155,13 @@
       <c r="B6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -32623,17 +32181,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -32785,10 +32343,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -32796,32 +32354,32 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107" t="s">
+      <c r="C43" s="107"/>
+      <c r="D43" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="G43" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="54"/>
@@ -32838,109 +32396,109 @@
       <c r="A45" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="50"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="40"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="103"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="61"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="103"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="102"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="28"/>
@@ -33076,6 +32634,36 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
@@ -33083,36 +32671,6 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -33142,17 +32700,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -33161,11 +32719,11 @@
       <c r="B2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -33178,13 +32736,13 @@
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -33197,13 +32755,13 @@
       <c r="B4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -33218,11 +32776,11 @@
       <c r="B5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -33235,13 +32793,13 @@
       <c r="B6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -33261,17 +32819,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -33423,10 +32981,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -33434,32 +32992,32 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107" t="s">
+      <c r="C43" s="107"/>
+      <c r="D43" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="G43" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="54"/>
@@ -33476,109 +33034,109 @@
       <c r="A45" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="50"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="40"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="103"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="61"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="103"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="102"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="28"/>
@@ -33714,6 +33272,36 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
@@ -33721,36 +33309,6 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -33780,17 +33338,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -33799,11 +33357,11 @@
       <c r="B2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -33816,13 +33374,13 @@
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -33835,13 +33393,13 @@
       <c r="B4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -33856,11 +33414,11 @@
       <c r="B5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -33873,13 +33431,13 @@
       <c r="B6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -33899,17 +33457,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -34061,10 +33619,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -34072,32 +33630,32 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107" t="s">
+      <c r="C43" s="107"/>
+      <c r="D43" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="G43" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="54"/>
@@ -34114,109 +33672,109 @@
       <c r="A45" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="50"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="40"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="103"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="61"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="103"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="102"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="28"/>
@@ -34352,6 +33910,36 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
@@ -34359,36 +33947,6 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -34418,17 +33976,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -34437,11 +33995,11 @@
       <c r="B2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -34454,13 +34012,13 @@
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -34473,13 +34031,13 @@
       <c r="B4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -34494,11 +34052,11 @@
       <c r="B5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -34511,13 +34069,13 @@
       <c r="B6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -34537,17 +34095,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -34699,10 +34257,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -34710,32 +34268,32 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107" t="s">
+      <c r="C43" s="107"/>
+      <c r="D43" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="G43" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="54"/>
@@ -34752,109 +34310,109 @@
       <c r="A45" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="50"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="40"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="103"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="61"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="103"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="102"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="28"/>
@@ -34990,6 +34548,36 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
@@ -34997,36 +34585,6 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -35056,17 +34614,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -35075,11 +34633,11 @@
       <c r="B2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -35092,13 +34650,13 @@
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -35111,13 +34669,13 @@
       <c r="B4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -35132,11 +34690,11 @@
       <c r="B5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -35149,13 +34707,13 @@
       <c r="B6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -35175,17 +34733,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -35337,10 +34895,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -35348,32 +34906,32 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107" t="s">
+      <c r="C43" s="107"/>
+      <c r="D43" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="G43" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="54"/>
@@ -35390,109 +34948,109 @@
       <c r="A45" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="50"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="40"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="103"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="61"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="103"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="102"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="28"/>
@@ -35628,6 +35186,36 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
@@ -35635,36 +35223,6 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -35694,17 +35252,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -35713,11 +35271,11 @@
       <c r="B2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -35730,13 +35288,13 @@
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -35749,13 +35307,13 @@
       <c r="B4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -35770,11 +35328,11 @@
       <c r="B5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -35787,13 +35345,13 @@
       <c r="B6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -35813,17 +35371,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -35975,10 +35533,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -35986,32 +35544,32 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107" t="s">
+      <c r="C43" s="107"/>
+      <c r="D43" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="G43" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="54"/>
@@ -36028,109 +35586,109 @@
       <c r="A45" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="50"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="40"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="103"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="61"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="103"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="102"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="28"/>
@@ -36266,6 +35824,36 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
@@ -36273,36 +35861,6 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -36332,17 +35890,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -36351,11 +35909,11 @@
       <c r="B2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -36368,13 +35926,13 @@
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -36387,13 +35945,13 @@
       <c r="B4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -36408,11 +35966,11 @@
       <c r="B5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -36425,13 +35983,13 @@
       <c r="B6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -36451,17 +36009,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -36613,10 +36171,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -36624,32 +36182,32 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107" t="s">
+      <c r="C43" s="107"/>
+      <c r="D43" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="G43" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="54"/>
@@ -36666,109 +36224,109 @@
       <c r="A45" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="50"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="40"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="103"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="61"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="103"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="102"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="28"/>
@@ -36904,6 +36462,36 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
@@ -36911,36 +36499,6 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -36956,8 +36514,8 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -36970,17 +36528,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -36989,13 +36547,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -37008,13 +36566,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -37027,13 +36585,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -37048,13 +36606,13 @@
       <c r="B5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -37067,13 +36625,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -37095,17 +36653,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -37257,10 +36815,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -37268,11 +36826,11 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="40" t="s">
@@ -37299,147 +36857,162 @@
       <c r="A44" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="105" t="s">
+      <c r="B44" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="107" t="s">
+      <c r="C44" s="107"/>
+      <c r="D44" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="108"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="107" t="s">
+      <c r="G44" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="H44" s="109"/>
-      <c r="I44" s="108"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="109"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="108"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="107" t="s">
+      <c r="E45" s="109"/>
+      <c r="F45" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="105" t="s">
+      <c r="B46" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107" t="s">
+      <c r="C46" s="107"/>
+      <c r="D46" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="108"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="107" t="s">
+      <c r="E46" s="109"/>
+      <c r="F46" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107" t="s">
+      <c r="C47" s="107"/>
+      <c r="D47" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="G47" s="107" t="s">
+      <c r="G47" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="108"/>
+      <c r="B48" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="109"/>
       <c r="F48" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="G48" s="107" t="s">
+      <c r="G48" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
+    </row>
+    <row r="49" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A49" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="109"/>
+      <c r="D49" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="109"/>
+      <c r="F49" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
-    </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="108"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="50"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="40"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="103"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="51"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="103"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="102"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="28"/>
@@ -37565,18 +37138,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -37592,13 +37160,18 @@
     <mergeCell ref="G47:I47"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -37614,8 +37187,8 @@
   </sheetPr>
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44:I44"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -37628,17 +37201,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -37647,13 +37220,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -37666,13 +37239,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -37685,13 +37258,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -37706,13 +37279,13 @@
       <c r="B5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -37725,13 +37298,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -37753,17 +37326,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -37917,10 +37490,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -37928,176 +37501,182 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107" t="s">
+      <c r="C43" s="107"/>
+      <c r="D43" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="G43" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9" ht="13.5" customHeight="1">
       <c r="A44" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="105" t="s">
+      <c r="B44" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="107" t="s">
+      <c r="C44" s="107"/>
+      <c r="D44" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="108"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="107" t="s">
+      <c r="G44" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="H44" s="109"/>
-      <c r="I44" s="108"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="109"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="108"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="107" t="s">
+      <c r="E45" s="109"/>
+      <c r="F45" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="105" t="s">
+      <c r="B46" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107" t="s">
+      <c r="C46" s="107"/>
+      <c r="D46" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="108"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="107" t="s">
+      <c r="E46" s="109"/>
+      <c r="F46" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107" t="s">
+      <c r="C47" s="107"/>
+      <c r="D47" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="108"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="107" t="s">
+      <c r="E47" s="109"/>
+      <c r="F47" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="108"/>
-      <c r="D48" s="107" t="s">
+      <c r="C48" s="109"/>
+      <c r="D48" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="G48" s="107" t="s">
+      <c r="G48" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="100" t="s">
+      <c r="B49" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="102" t="s">
+      <c r="C49" s="112"/>
+      <c r="D49" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="103"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="G49" s="102" t="s">
+      <c r="G49" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="H49" s="104"/>
-      <c r="I49" s="103"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="114"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="51"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="98"/>
-      <c r="I51" s="99"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="102"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="28"/>
@@ -38226,25 +37805,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
@@ -38254,12 +37820,25 @@
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="G43:I43"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -38275,8 +37854,8 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44:I44"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -38289,17 +37868,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -38308,13 +37887,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -38327,13 +37906,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -38346,13 +37925,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -38367,13 +37946,13 @@
       <c r="B5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -38386,13 +37965,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -38414,17 +37993,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -38576,10 +38155,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -38587,132 +38166,132 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107" t="s">
+      <c r="C43" s="107"/>
+      <c r="D43" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="G43" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9" ht="13.5" customHeight="1">
       <c r="A44" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="105" t="s">
+      <c r="B44" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="107" t="s">
+      <c r="C44" s="107"/>
+      <c r="D44" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="108"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="G44" s="107" t="s">
+      <c r="G44" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="H44" s="109"/>
-      <c r="I44" s="108"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="109"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="40"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="108"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="53"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="52"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="50"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="40"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="103"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="103"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="114"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="51"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="98"/>
-      <c r="I51" s="99"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="102"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="28"/>
@@ -38824,25 +38403,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
@@ -38852,12 +38418,25 @@
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="G43:I43"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -38871,10 +38450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -38887,17 +38466,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -38906,13 +38485,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -38925,13 +38504,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -38944,13 +38523,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -38965,13 +38544,13 @@
       <c r="B5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -38984,13 +38563,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -39012,17 +38591,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -39063,67 +38642,68 @@
       <c r="A16" s="28"/>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="28"/>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="28"/>
       <c r="I18" s="29"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="28"/>
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="28"/>
       <c r="I20" s="29"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="28"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="28"/>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="28"/>
       <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="118"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="28"/>
       <c r="I24" s="29"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="28"/>
       <c r="I25" s="29"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" s="28"/>
       <c r="I26" s="29"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="28"/>
       <c r="I27" s="29"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="28"/>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="28"/>
       <c r="I29" s="29"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="28"/>
       <c r="I30" s="29"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" s="28"/>
       <c r="I31" s="29"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="28"/>
       <c r="I32" s="29"/>
     </row>
@@ -39174,10 +38754,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -39185,124 +38765,132 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="B43" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="107"/>
+      <c r="D43" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="109"/>
+      <c r="F43" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9" ht="13.5" customHeight="1">
       <c r="A44" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="108"/>
+      <c r="B44" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="107"/>
+      <c r="D44" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="109"/>
+      <c r="F44" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" s="110"/>
+      <c r="I44" s="109"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A45" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="105"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="108"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="53"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A46" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="52"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A47" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A48" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="50"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="40"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="103"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="103"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="114"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="51"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="98"/>
-      <c r="I51" s="99"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="102"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="28"/>
@@ -39321,6 +38909,9 @@
       <c r="C55">
         <v>1</v>
       </c>
+      <c r="D55" t="s">
+        <v>130</v>
+      </c>
       <c r="I55" s="29"/>
     </row>
     <row r="56" spans="1:9">
@@ -39329,9 +38920,6 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="28"/>
-      <c r="C57">
-        <v>2</v>
-      </c>
       <c r="I57" s="29"/>
     </row>
     <row r="58" spans="1:9">
@@ -39344,9 +38932,6 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="28"/>
-      <c r="C60">
-        <v>3</v>
-      </c>
       <c r="I60" s="29"/>
     </row>
     <row r="61" spans="1:9">
@@ -39355,9 +38940,6 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="28"/>
-      <c r="C62">
-        <v>4</v>
-      </c>
       <c r="I62" s="29"/>
     </row>
     <row r="63" spans="1:9">
@@ -39366,9 +38948,6 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="28"/>
-      <c r="C64">
-        <v>5</v>
-      </c>
       <c r="I64" s="29"/>
     </row>
     <row r="65" spans="1:9">
@@ -39420,6 +38999,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="G50:I50"/>
@@ -39430,30 +39033,6 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -39470,7 +39049,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -39483,17 +39062,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -39502,13 +39081,13 @@
       <c r="B2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -39521,18 +39100,18 @@
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="39">
-        <v>45195</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -39540,13 +39119,13 @@
       <c r="B4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -39561,32 +39140,30 @@
       <c r="B5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="38" t="s">
-        <v>10</v>
-      </c>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="22"/>
       <c r="B6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -39598,7 +39175,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -39608,17 +39185,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -39770,10 +39347,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -39781,124 +39358,124 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="108"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="52"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9" ht="13.5" customHeight="1">
       <c r="A44" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="108"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="52"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="109"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="105"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="108"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="53"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="52"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="50"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="40"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="103"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="103"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="114"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="61"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="98"/>
-      <c r="I51" s="99"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="102"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="28"/>
@@ -40016,6 +39593,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="G50:I50"/>
@@ -40026,30 +39627,6 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -40079,17 +39656,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -40098,13 +39675,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -40117,13 +39694,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -40136,13 +39713,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -40157,13 +39734,13 @@
       <c r="B5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -40176,13 +39753,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -40204,17 +39781,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -40366,10 +39943,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -40377,124 +39954,124 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="108"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="52"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9" ht="13.5" customHeight="1">
       <c r="A44" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="108"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="52"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="109"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="105"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="108"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="53"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="52"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="50"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="40"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="103"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="103"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="114"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="51"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="98"/>
-      <c r="I51" s="99"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="102"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="28"/>
@@ -40612,6 +40189,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="G50:I50"/>
@@ -40622,30 +40223,6 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -40675,17 +40252,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -40694,11 +40271,11 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -40711,13 +40288,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -40730,13 +40307,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -40751,11 +40328,11 @@
       <c r="B5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -40768,13 +40345,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -40794,17 +40371,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -40956,10 +40533,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -40967,32 +40544,32 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107" t="s">
+      <c r="C43" s="107"/>
+      <c r="D43" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="G43" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="54"/>
@@ -41009,109 +40586,109 @@
       <c r="A45" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="50"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="40"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="103"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="51"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="103"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="102"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="28"/>
@@ -41247,6 +40824,36 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
@@ -41254,36 +40861,6 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -41313,17 +40890,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
@@ -41332,11 +40909,11 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
@@ -41349,13 +40926,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
@@ -41368,13 +40945,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
@@ -41389,11 +40966,11 @@
       <c r="B5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
@@ -41406,13 +40983,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
@@ -41432,17 +41009,17 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
@@ -41594,10 +41171,10 @@
       <c r="A42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
@@ -41605,32 +41182,32 @@
       <c r="F42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107" t="s">
+      <c r="C43" s="107"/>
+      <c r="D43" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="G43" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="54"/>
@@ -41647,109 +41224,109 @@
       <c r="A45" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="50"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="40"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="103"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="51"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="103"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="102"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="28"/>
@@ -41885,6 +41462,36 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
@@ -41892,36 +41499,6 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -41931,21 +41508,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009445A7E8E8109D4DBEF9E08359BAA9BE" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3344fbb680dad10fff8627a375a6bac9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="991d3f1e-b28e-4b8f-b0a2-c4cfa18602ed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="baf3d55b1c71b96899faf13775af1c63" ns2:_="">
     <xsd:import namespace="991d3f1e-b28e-4b8f-b0a2-c4cfa18602ed"/>
@@ -42083,24 +41645,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD95721-0820-44F4-B742-1548C916F37D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F144B723-4FB8-4D6B-A48E-1AAAF7964110}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6AAD5C0-9694-41D3-BDAE-69E5F30E657E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42116,4 +41676,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F144B723-4FB8-4D6B-A48E-1AAAF7964110}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD95721-0820-44F4-B742-1548C916F37D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>